--- a/energyscope/preprocessing/lca_pre/lca_outdated.xlsx
+++ b/energyscope/preprocessing/lca_pre/lca_outdated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghuysn\GIT_Projects\EnergyScope_multi_criteria\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghuysn\GIT_Projects\EnergyScope_multi_criteria\energyscope\preprocessing\lca_pre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A81AC0-83F5-4634-A8B2-BA8FC062847F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2408E2-F0AB-43D1-A985-1A8DE66E9152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -727,11 +727,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B113"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="49.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
